--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_208.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_208.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(128.76, 134.6)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+          <t>[('0:00:22.820000', '0:00:26.720000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -618,587 +630,550 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07542426147077311</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(59.8, 69.34)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86), (34.66, 36.26), (8.26, 12.96)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[('0:00:03.660000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.7, 10.9)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:00:04.160000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[('0:00:03.320000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.88, 12.78)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(20.24, 26.72)]</t>
+          <t>[['C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:15.720294')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:00:10.760000', '0:00:23.600000'), ('0:00:47.140000', '0:00:55.200000'), ('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:35.820000', '0:00:37.760000'), ('0:00:35.600000', '0:00:37.240000'), ('0:00:08.460000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(23.04, 32.8)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.08104575163398693</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B/7', 'B/6']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A', 'A']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(4.940612, 7.123287)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(41.256621, 53.946326)]</t>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06)]</t>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(31.74, 33.88)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(38.62, 44.06)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
